--- a/requerimiento/Actividades-Consumar.xlsx
+++ b/requerimiento/Actividades-Consumar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consumar\consumar_app\requerimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7769C4-455A-4B03-A433-DCB9AC0B861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AEF3D6-DC35-4D16-9857-4A8990D1FE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="2" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:AR20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1792,10 +1792,10 @@
       <c r="AR18" s="9"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2">
